--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,78 +409,84 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>17.35606544302896</v>
+      </c>
+      <c r="C2">
+        <v>15.74976227707409</v>
+      </c>
+      <c r="D2">
+        <v>7.121239758753087</v>
+      </c>
+      <c r="E2">
+        <v>29.38590294997602</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.087407742393551</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>26.18611054974949</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>17.03619603410637</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>16.3554614140949</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>16.08591575629832</v>
+      </c>
+      <c r="C3">
+        <v>14.63326592435963</v>
+      </c>
+      <c r="D3">
+        <v>6.607326209463131</v>
+      </c>
+      <c r="E3">
+        <v>27.16775591582243</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.099395993929442</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>25.37077007314707</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>15.78433753404619</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>16.32049904059535</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>15.27008236542683</v>
+      </c>
+      <c r="C4">
+        <v>13.95237940847677</v>
+      </c>
+      <c r="D4">
+        <v>6.281396582744376</v>
+      </c>
+      <c r="E4">
+        <v>25.75152928052575</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.106873865280073</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>24.8808297471884</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>14.980254918998</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>16.30578335235304</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>14.92839168704034</v>
+      </c>
+      <c r="C5">
+        <v>13.66957332756933</v>
+      </c>
+      <c r="D5">
+        <v>6.164637987379273</v>
+      </c>
+      <c r="E5">
+        <v>25.16016469264434</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.109954759027266</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>24.68385241089094</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>14.66593949207694</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>16.30137910757352</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>14.87109154828073</v>
+      </c>
+      <c r="C6">
+        <v>13.62229200709428</v>
+      </c>
+      <c r="D6">
+        <v>6.145128571312337</v>
+      </c>
+      <c r="E6">
+        <v>25.06109273444384</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.11046848254612</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>24.65130634683575</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>14.62018439390297</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>16.30074105410413</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>15.26551181856334</v>
+      </c>
+      <c r="C7">
+        <v>13.94858697484701</v>
+      </c>
+      <c r="D7">
+        <v>6.279830141956586</v>
+      </c>
+      <c r="E7">
+        <v>25.74361233205999</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.106915274032436</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>24.87816239653455</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>14.97574994351111</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>16.30571763998184</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>16.92545763629322</v>
+      </c>
+      <c r="C8">
+        <v>15.35928520071515</v>
+      </c>
+      <c r="D8">
+        <v>6.947134421700281</v>
+      </c>
+      <c r="E8">
+        <v>28.63197407817097</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.091519649893098</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>25.90275052401857</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>16.61177015329871</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>16.3419390977511</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>19.90538991976559</v>
+      </c>
+      <c r="C9">
+        <v>18.07966761724863</v>
+      </c>
+      <c r="D9">
+        <v>8.14959469849868</v>
+      </c>
+      <c r="E9">
+        <v>33.89589503564616</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.062043222719361</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>27.99892195534947</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>19.55008569681099</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>16.47178328883984</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>21.9435420887338</v>
+      </c>
+      <c r="C10">
+        <v>19.96391840371587</v>
+      </c>
+      <c r="D10">
+        <v>8.968885725326123</v>
+      </c>
+      <c r="E10">
+        <v>37.56918539527086</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.040474482425207</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>29.59873526856004</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>21.56238202764773</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>16.61126228605783</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>22.84245568697367</v>
+      </c>
+      <c r="C11">
+        <v>20.80098730730836</v>
+      </c>
+      <c r="D11">
+        <v>9.329398149545503</v>
+      </c>
+      <c r="E11">
+        <v>39.21192406487392</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.030586172676452</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>30.34232815152424</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>22.45087729697762</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>16.68644295061464</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>23.17924775617666</v>
+      </c>
+      <c r="C12">
+        <v>21.11557147847741</v>
+      </c>
+      <c r="D12">
+        <v>9.464332811675609</v>
+      </c>
+      <c r="E12">
+        <v>39.83135562267359</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.026820997726823</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>30.62653739684708</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>22.78394656426467</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>16.71681186829905</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>23.10686582683718</v>
+      </c>
+      <c r="C13">
+        <v>21.04791775258444</v>
+      </c>
+      <c r="D13">
+        <v>9.435339656576566</v>
+      </c>
+      <c r="E13">
+        <v>39.69804141114685</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.027632989396299</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>30.56520417626116</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>22.71235601083132</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>16.71018313880028</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>22.87023315644214</v>
+      </c>
+      <c r="C14">
+        <v>20.82691316399481</v>
+      </c>
+      <c r="D14">
+        <v>9.34052997550306</v>
+      </c>
+      <c r="E14">
+        <v>39.26292873062634</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.030276886002272</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>30.36565514651396</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>22.47834385182533</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>16.6889020089742</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>22.72483400504375</v>
+      </c>
+      <c r="C15">
+        <v>20.69124583209511</v>
+      </c>
+      <c r="D15">
+        <v>9.282255565883499</v>
+      </c>
+      <c r="E15">
+        <v>38.99611336900982</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.031893336911954</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>30.24378007656963</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>22.33457972968889</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>16.67612097755978</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>21.88426459593559</v>
+      </c>
+      <c r="C16">
+        <v>19.90884968689569</v>
+      </c>
+      <c r="D16">
+        <v>8.945093985921822</v>
+      </c>
+      <c r="E16">
+        <v>37.46137543242936</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.041118378649424</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>29.55048564406817</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>21.50381485103108</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>16.60660255427085</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>21.36166608847104</v>
+      </c>
+      <c r="C17">
+        <v>19.42405087159528</v>
+      </c>
+      <c r="D17">
+        <v>8.735246840407001</v>
+      </c>
+      <c r="E17">
+        <v>36.51355448870181</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.04675168351523</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>29.12944091292164</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>20.98759498188863</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>16.56710120113406</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>21.05839049793699</v>
+      </c>
+      <c r="C18">
+        <v>19.14328202191353</v>
+      </c>
+      <c r="D18">
+        <v>8.613389667000453</v>
+      </c>
+      <c r="E18">
+        <v>35.96563310739598</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.049985275195136</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>28.88873002113542</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>20.68811278672833</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16.54547077425272</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>20.95523185001217</v>
+      </c>
+      <c r="C19">
+        <v>19.04787437920543</v>
+      </c>
+      <c r="D19">
+        <v>8.57192720330068</v>
+      </c>
+      <c r="E19">
+        <v>35.77960334349817</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.051079257912391</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>28.80747183687968</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>20.58625907703788</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>16.53832828023184</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>21.41757302836753</v>
+      </c>
+      <c r="C20">
+        <v>19.47585454642914</v>
+      </c>
+      <c r="D20">
+        <v>8.757704204146094</v>
+      </c>
+      <c r="E20">
+        <v>36.61472784104186</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.046152749562972</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>29.17410826042482</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>21.04280981178847</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16.57119196981711</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>22.9398317559219</v>
+      </c>
+      <c r="C21">
+        <v>20.89188815379476</v>
+      </c>
+      <c r="D21">
+        <v>9.368419369782455</v>
+      </c>
+      <c r="E21">
+        <v>39.39079064807641</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.029500957116093</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>30.42419286675014</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>22.54716645689634</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>16.69509937334875</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>23.91396695896524</v>
+      </c>
+      <c r="C22">
+        <v>21.8036908752951</v>
+      </c>
+      <c r="D22">
+        <v>9.758426645541899</v>
+      </c>
+      <c r="E22">
+        <v>41.19062120878908</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.018491567071303</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>31.2567588941181</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>23.51091446990713</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>16.78727730587967</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>23.39577789750994</v>
+      </c>
+      <c r="C23">
+        <v>21.3181036896442</v>
+      </c>
+      <c r="D23">
+        <v>9.551044414792564</v>
+      </c>
+      <c r="E23">
+        <v>40.23079177912913</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.02438275696707</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>30.81083084148191</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>22.99813842393009</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>16.73697611034353</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>21.39230633865101</v>
+      </c>
+      <c r="C24">
+        <v>19.4524405307872</v>
+      </c>
+      <c r="D24">
+        <v>8.747555021307111</v>
+      </c>
+      <c r="E24">
+        <v>36.56899683516644</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.046423542695432</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>29.15390996222771</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>21.01785563392722</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>16.56933918689382</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>19.12714494490282</v>
+      </c>
+      <c r="C25">
+        <v>17.36518799966396</v>
+      </c>
+      <c r="D25">
+        <v>7.836088117304732</v>
+      </c>
+      <c r="E25">
+        <v>32.51002696998096</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.069973703667412</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>27.42205271584501</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>18.78237493350897</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16.42957116681361</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.35606544302896</v>
+        <v>14.13865601605993</v>
       </c>
       <c r="C2">
-        <v>15.74976227707409</v>
+        <v>11.65082694929254</v>
       </c>
       <c r="D2">
-        <v>7.121239758753087</v>
+        <v>6.023976823040961</v>
       </c>
       <c r="E2">
-        <v>29.38590294997602</v>
+        <v>16.23622155853771</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.087407742393551</v>
+        <v>3.697928491171754</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.18611054974949</v>
+        <v>29.90177494866774</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.03619603410637</v>
+        <v>15.16543590486079</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.3554614140949</v>
+        <v>22.06050047206049</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.08591575629832</v>
+        <v>13.85170263140027</v>
       </c>
       <c r="C3">
-        <v>14.63326592435963</v>
+        <v>11.32067020127965</v>
       </c>
       <c r="D3">
-        <v>6.607326209463131</v>
+        <v>5.913192090420042</v>
       </c>
       <c r="E3">
-        <v>27.16775591582243</v>
+        <v>15.32941049253146</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.099395993929442</v>
+        <v>3.701853157339202</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.37077007314707</v>
+        <v>29.76270398321813</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.78433753404619</v>
+        <v>14.93783338704886</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.32049904059535</v>
+        <v>22.05950917582567</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.27008236542683</v>
+        <v>13.67751017626312</v>
       </c>
       <c r="C4">
-        <v>13.95237940847677</v>
+        <v>11.11709939598795</v>
       </c>
       <c r="D4">
-        <v>6.281396582744376</v>
+        <v>5.846089042246787</v>
       </c>
       <c r="E4">
-        <v>25.75152928052575</v>
+        <v>14.7501427834372</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.106873865280073</v>
+        <v>3.704383117743995</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.8808297471884</v>
+        <v>29.68253631718972</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.980254918998</v>
+        <v>14.80134307409016</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.30578335235304</v>
+        <v>22.06061651814846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.92839168704034</v>
+        <v>13.60713763964477</v>
       </c>
       <c r="C5">
-        <v>13.66957332756933</v>
+        <v>11.0340674721524</v>
       </c>
       <c r="D5">
-        <v>6.164637987379273</v>
+        <v>5.819014409959433</v>
       </c>
       <c r="E5">
-        <v>25.16016469264434</v>
+        <v>14.50871092442595</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.109954759027266</v>
+        <v>3.705444452881163</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.68385241089094</v>
+        <v>29.65119505850527</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.66593949207694</v>
+        <v>14.74661331460048</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.30137910757352</v>
+        <v>22.06149824485174</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.87109154828073</v>
+        <v>13.59549253296952</v>
       </c>
       <c r="C6">
-        <v>13.62229200709428</v>
+        <v>11.02027973861643</v>
       </c>
       <c r="D6">
-        <v>6.145128571312337</v>
+        <v>5.814536163320486</v>
       </c>
       <c r="E6">
-        <v>25.06109273444384</v>
+        <v>14.46830583181273</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.11046848254612</v>
+        <v>3.705622524009911</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.65130634683575</v>
+        <v>29.6460714453653</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.62018439390297</v>
+        <v>14.73758136329682</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.30074105410413</v>
+        <v>22.0616706231403</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.26551181856334</v>
+        <v>13.67655848306256</v>
       </c>
       <c r="C7">
-        <v>13.94858697484701</v>
+        <v>11.1159797140321</v>
       </c>
       <c r="D7">
-        <v>6.279830141956586</v>
+        <v>5.845722757647496</v>
       </c>
       <c r="E7">
-        <v>25.74361233205999</v>
+        <v>14.74690810840996</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.106915274032436</v>
+        <v>3.704397308202104</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.87816239653455</v>
+        <v>29.68210824460098</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.97574994351111</v>
+        <v>14.80060126783503</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.30571763998184</v>
+        <v>22.06062666800201</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.92545763629322</v>
+        <v>14.03936548969023</v>
       </c>
       <c r="C8">
-        <v>15.35928520071515</v>
+        <v>11.53724759478585</v>
       </c>
       <c r="D8">
-        <v>6.947134421700281</v>
+        <v>5.985611037609724</v>
       </c>
       <c r="E8">
-        <v>28.63197407817097</v>
+        <v>15.92837027247081</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.091519649893098</v>
+        <v>3.699256847513378</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.90275052401857</v>
+        <v>29.85274856129362</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.61177015329871</v>
+        <v>15.08632581637091</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.3419390977511</v>
+        <v>22.05980191257427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.90538991976559</v>
+        <v>14.76191217656282</v>
       </c>
       <c r="C9">
-        <v>18.07966761724863</v>
+        <v>12.35081179888962</v>
       </c>
       <c r="D9">
-        <v>8.14959469849868</v>
+        <v>6.265504203119374</v>
       </c>
       <c r="E9">
-        <v>33.89589503564616</v>
+        <v>18.05704931936777</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.062043222719361</v>
+        <v>3.690124177728708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.99892195534947</v>
+        <v>30.22810159358987</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.55008569681099</v>
+        <v>15.66926245505778</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.47178328883984</v>
+        <v>22.07184644977569</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.9435420887338</v>
+        <v>15.29330057379214</v>
       </c>
       <c r="C10">
-        <v>19.96391840371587</v>
+        <v>12.93373019518559</v>
       </c>
       <c r="D10">
-        <v>8.968885725326123</v>
+        <v>6.472269970564856</v>
       </c>
       <c r="E10">
-        <v>37.56918539527086</v>
+        <v>19.67440724929947</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.040474482425207</v>
+        <v>3.683983804377266</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.59873526856004</v>
+        <v>30.52765013848485</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.56238202764773</v>
+        <v>16.10698329077541</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.61126228605783</v>
+        <v>22.08908787217015</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.84245568697367</v>
+        <v>15.5339118673344</v>
       </c>
       <c r="C11">
-        <v>20.80098730730836</v>
+        <v>13.19435999189055</v>
       </c>
       <c r="D11">
-        <v>9.329398149545503</v>
+        <v>6.566116332805888</v>
       </c>
       <c r="E11">
-        <v>39.21192406487392</v>
+        <v>20.37030312630491</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.030586172676452</v>
+        <v>3.681312229421285</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.34232815152424</v>
+        <v>30.66882935666803</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.45087729697762</v>
+        <v>16.30724418952456</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.68644295061464</v>
+        <v>22.09876623412211</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.17924775617666</v>
+        <v>15.62476650850926</v>
       </c>
       <c r="C12">
-        <v>21.11557147847741</v>
+        <v>13.29230124649464</v>
       </c>
       <c r="D12">
-        <v>9.464332811675609</v>
+        <v>6.601586345293079</v>
       </c>
       <c r="E12">
-        <v>39.83135562267359</v>
+        <v>20.62800502361628</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.026820997726823</v>
+        <v>3.680317935948868</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.62653739684708</v>
+        <v>30.72297274879811</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.78394656426467</v>
+        <v>16.38316663682599</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.71681186829905</v>
+        <v>22.10269587853317</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.10686582683718</v>
+        <v>15.60521239494643</v>
       </c>
       <c r="C13">
-        <v>21.04791775258444</v>
+        <v>13.27124286178113</v>
       </c>
       <c r="D13">
-        <v>9.435339656576566</v>
+        <v>6.59395081984748</v>
       </c>
       <c r="E13">
-        <v>39.69804141114685</v>
+        <v>20.57276252522426</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.027632989396299</v>
+        <v>3.680531304163464</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.56520417626116</v>
+        <v>30.71128207854387</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.71235601083132</v>
+        <v>16.36681265170269</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.71018313880028</v>
+        <v>22.1018377770847</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.87023315644214</v>
+        <v>15.54139228214685</v>
       </c>
       <c r="C14">
-        <v>20.82691316399481</v>
+        <v>13.20243332324437</v>
       </c>
       <c r="D14">
-        <v>9.34052997550306</v>
+        <v>6.569036032229804</v>
       </c>
       <c r="E14">
-        <v>39.26292873062634</v>
+        <v>20.39162082624294</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.030276886002272</v>
+        <v>3.681230080831815</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.36565514651396</v>
+        <v>30.67327024553844</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.47834385182533</v>
+        <v>16.31348903867758</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.6889020089742</v>
+        <v>22.09908422006371</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72483400504375</v>
+        <v>15.50226397497379</v>
       </c>
       <c r="C15">
-        <v>20.69124583209511</v>
+        <v>13.16018453203501</v>
       </c>
       <c r="D15">
-        <v>9.282255565883499</v>
+        <v>6.553765136318446</v>
       </c>
       <c r="E15">
-        <v>38.99611336900982</v>
+        <v>20.2799096026816</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.031893336911954</v>
+        <v>3.681660360523758</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.24378007656963</v>
+        <v>30.6500749500633</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.33457972968889</v>
+        <v>16.28083602844191</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.67612097755978</v>
+        <v>22.09743207470302</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.88426459593559</v>
+        <v>15.27754497365452</v>
       </c>
       <c r="C16">
-        <v>19.90884968689569</v>
+        <v>12.91659722560956</v>
       </c>
       <c r="D16">
-        <v>8.945093985921822</v>
+        <v>6.466129412603956</v>
       </c>
       <c r="E16">
-        <v>37.46137543242936</v>
+        <v>19.6281125954087</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.041118378649424</v>
+        <v>3.684160836290265</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.55048564406817</v>
+        <v>30.51852053386552</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.50381485103108</v>
+        <v>16.09391216903469</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.60660255427085</v>
+        <v>22.08849236360238</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.36166608847104</v>
+        <v>15.13932846638173</v>
       </c>
       <c r="C17">
-        <v>19.42405087159528</v>
+        <v>12.76592648238887</v>
       </c>
       <c r="D17">
-        <v>8.735246840407001</v>
+        <v>6.412286461997397</v>
       </c>
       <c r="E17">
-        <v>36.51355448870181</v>
+        <v>19.2178535704621</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.04675168351523</v>
+        <v>3.685725879374928</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.12944091292164</v>
+        <v>30.4390574201486</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.98759498188863</v>
+        <v>15.9794776972881</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.56710120113406</v>
+        <v>22.08347873568638</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.05839049793699</v>
+        <v>15.05973014367199</v>
       </c>
       <c r="C18">
-        <v>19.14328202191353</v>
+        <v>12.67884248801823</v>
       </c>
       <c r="D18">
-        <v>8.613389667000453</v>
+        <v>6.381299541795227</v>
       </c>
       <c r="E18">
-        <v>35.96563310739598</v>
+        <v>18.97804883296994</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.049985275195136</v>
+        <v>3.686637514497831</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.88873002113542</v>
+        <v>30.39381633992925</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.68811278672833</v>
+        <v>15.9137697017089</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.54547077425272</v>
+        <v>22.08076772177998</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.95523185001217</v>
+        <v>15.03276546247245</v>
       </c>
       <c r="C19">
-        <v>19.04787437920543</v>
+        <v>12.64928804462821</v>
       </c>
       <c r="D19">
-        <v>8.57192720330068</v>
+        <v>6.370805987633801</v>
       </c>
       <c r="E19">
-        <v>35.77960334349817</v>
+        <v>18.89619536766716</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051079257912391</v>
+        <v>3.686948151292039</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.80747183687968</v>
+        <v>30.37857890876465</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.58625907703788</v>
+        <v>15.8915436291916</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.53832828023184</v>
+        <v>22.0798794544782</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.41757302836753</v>
+        <v>15.15405291420986</v>
       </c>
       <c r="C20">
-        <v>19.47585454642914</v>
+        <v>12.78201008913657</v>
       </c>
       <c r="D20">
-        <v>8.757704204146094</v>
+        <v>6.418020259959074</v>
       </c>
       <c r="E20">
-        <v>36.61472784104186</v>
+        <v>19.26192294724207</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.046152749562972</v>
+        <v>3.68555809234177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.17410826042482</v>
+        <v>30.44746855614466</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.04280981178847</v>
+        <v>15.99164843904328</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.57119196981711</v>
+        <v>22.0839945661657</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.9398317559219</v>
+        <v>15.56014560139189</v>
       </c>
       <c r="C21">
-        <v>20.89188815379476</v>
+        <v>13.22266555935702</v>
       </c>
       <c r="D21">
-        <v>9.368419369782455</v>
+        <v>6.576356229659108</v>
       </c>
       <c r="E21">
-        <v>39.39079064807641</v>
+        <v>20.44498416589598</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.029500957116093</v>
+        <v>3.681024362681265</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.42419286675014</v>
+        <v>30.68441693844069</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.54716645689634</v>
+        <v>16.32914968269593</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.69509937334875</v>
+        <v>22.09988581800175</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.91396695896524</v>
+        <v>15.82399548776945</v>
       </c>
       <c r="C22">
-        <v>21.8036908752951</v>
+        <v>13.50622673666987</v>
       </c>
       <c r="D22">
-        <v>9.758426645541899</v>
+        <v>6.679428167205748</v>
       </c>
       <c r="E22">
-        <v>41.19062120878908</v>
+        <v>21.18428353797158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.018491567071303</v>
+        <v>3.67816251770814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.2567588941181</v>
+        <v>30.84323868622187</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.51091446990713</v>
+        <v>16.55020550446523</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.78727730587967</v>
+        <v>22.11181460616646</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.39577789750994</v>
+        <v>15.6833472827542</v>
       </c>
       <c r="C23">
-        <v>21.3181036896442</v>
+        <v>13.35532118435977</v>
       </c>
       <c r="D23">
-        <v>9.551044414792564</v>
+        <v>6.62446601044408</v>
       </c>
       <c r="E23">
-        <v>40.23079177912913</v>
+        <v>20.79279542635584</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.02438275696707</v>
+        <v>3.679680719853255</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.81083084148191</v>
+        <v>30.75811842876621</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.99813842393009</v>
+        <v>16.43220450777133</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.73697611034353</v>
+        <v>22.10530657478527</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.39230633865101</v>
+        <v>15.14739640682981</v>
       </c>
       <c r="C24">
-        <v>19.4524405307872</v>
+        <v>12.7747401198978</v>
       </c>
       <c r="D24">
-        <v>8.747555021307111</v>
+        <v>6.415428106405282</v>
       </c>
       <c r="E24">
-        <v>36.56899683516644</v>
+        <v>19.24201146119782</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.046423542695432</v>
+        <v>3.685633911874266</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.15390996222771</v>
+        <v>30.4436644988599</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.01785563392722</v>
+        <v>15.98614578579718</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.56933918689382</v>
+        <v>22.08376082543087</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12714494490282</v>
+        <v>14.56591270178041</v>
       </c>
       <c r="C25">
-        <v>17.36518799966396</v>
+        <v>12.13283644866716</v>
       </c>
       <c r="D25">
-        <v>7.836088117304732</v>
+        <v>6.189426586638576</v>
       </c>
       <c r="E25">
-        <v>32.51002696998096</v>
+        <v>17.50252676118611</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.069973703667412</v>
+        <v>3.692494209391998</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.42205271584501</v>
+        <v>30.12230068333216</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.78237493350897</v>
+        <v>15.50959004999789</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.42957116681361</v>
+        <v>22.06711862666802</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13865601605993</v>
+        <v>17.35606544302897</v>
       </c>
       <c r="C2">
-        <v>11.65082694929254</v>
+        <v>15.74976227707414</v>
       </c>
       <c r="D2">
-        <v>6.023976823040961</v>
+        <v>7.121239758753073</v>
       </c>
       <c r="E2">
-        <v>16.23622155853771</v>
+        <v>29.38590294997606</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.697928491171754</v>
+        <v>2.087407742393681</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.90177494866774</v>
+        <v>26.18611054974943</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.16543590486079</v>
+        <v>17.03619603410641</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.06050047206049</v>
+        <v>16.35546141409482</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.85170263140027</v>
+        <v>16.08591575629837</v>
       </c>
       <c r="C3">
-        <v>11.32067020127965</v>
+        <v>14.63326592435965</v>
       </c>
       <c r="D3">
-        <v>5.913192090420042</v>
+        <v>6.607326209463146</v>
       </c>
       <c r="E3">
-        <v>15.32941049253146</v>
+        <v>27.16775591582257</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.701853157339202</v>
+        <v>2.099395993929445</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.76270398321813</v>
+        <v>25.37077007314706</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.93783338704886</v>
+        <v>15.78433753404621</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.05950917582567</v>
+        <v>16.32049904059531</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.67751017626312</v>
+        <v>15.2700823654269</v>
       </c>
       <c r="C4">
-        <v>11.11709939598795</v>
+        <v>13.95237940847674</v>
       </c>
       <c r="D4">
-        <v>5.846089042246787</v>
+        <v>6.281396582744366</v>
       </c>
       <c r="E4">
-        <v>14.7501427834372</v>
+        <v>25.75152928052588</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.704383117743995</v>
+        <v>2.106873865280206</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.68253631718972</v>
+        <v>24.88082974718839</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.80134307409016</v>
+        <v>14.98025491899802</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.06061651814846</v>
+        <v>16.30578335235303</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.60713763964477</v>
+        <v>14.92839168704043</v>
       </c>
       <c r="C5">
-        <v>11.0340674721524</v>
+        <v>13.66957332756934</v>
       </c>
       <c r="D5">
-        <v>5.819014409959433</v>
+        <v>6.164637987379257</v>
       </c>
       <c r="E5">
-        <v>14.50871092442595</v>
+        <v>25.16016469264444</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.705444452881163</v>
+        <v>2.109954759027266</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.65119505850527</v>
+        <v>24.68385241089083</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.74661331460048</v>
+        <v>14.66593949207692</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.06149824485174</v>
+        <v>16.3013791075735</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.59549253296952</v>
+        <v>14.87109154828076</v>
       </c>
       <c r="C6">
-        <v>11.02027973861643</v>
+        <v>13.6222920070943</v>
       </c>
       <c r="D6">
-        <v>5.814536163320486</v>
+        <v>6.145128571312348</v>
       </c>
       <c r="E6">
-        <v>14.46830583181273</v>
+        <v>25.06109273444391</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.705622524009911</v>
+        <v>2.110468482545853</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.6460714453653</v>
+        <v>24.65130634683572</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.73758136329682</v>
+        <v>14.62018439390297</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.0616706231403</v>
+        <v>16.30074105410408</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.67655848306256</v>
+        <v>15.26551181856338</v>
       </c>
       <c r="C7">
-        <v>11.1159797140321</v>
+        <v>13.94858697484702</v>
       </c>
       <c r="D7">
-        <v>5.845722757647496</v>
+        <v>6.279830141956552</v>
       </c>
       <c r="E7">
-        <v>14.74690810840996</v>
+        <v>25.74361233206003</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.704397308202104</v>
+        <v>2.106915274032297</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.68210824460098</v>
+        <v>24.87816239653439</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.80060126783503</v>
+        <v>14.97574994351118</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.06062666800201</v>
+        <v>16.30571763998171</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.03936548969023</v>
+        <v>16.92545763629328</v>
       </c>
       <c r="C8">
-        <v>11.53724759478585</v>
+        <v>15.35928520071515</v>
       </c>
       <c r="D8">
-        <v>5.985611037609724</v>
+        <v>6.947134421700234</v>
       </c>
       <c r="E8">
-        <v>15.92837027247081</v>
+        <v>28.63197407817091</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.699256847513378</v>
+        <v>2.091519649893232</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.85274856129362</v>
+        <v>25.90275052401867</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.08632581637091</v>
+        <v>16.61177015329877</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.05980191257427</v>
+        <v>16.34193909775114</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.76191217656282</v>
+        <v>19.9053899197656</v>
       </c>
       <c r="C9">
-        <v>12.35081179888962</v>
+        <v>18.07966761724869</v>
       </c>
       <c r="D9">
-        <v>6.265504203119374</v>
+        <v>8.149594698498731</v>
       </c>
       <c r="E9">
-        <v>18.05704931936777</v>
+        <v>33.89589503564607</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.690124177728708</v>
+        <v>2.06204322271949</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.22810159358987</v>
+        <v>27.99892195534957</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.66926245505778</v>
+        <v>19.55008569681099</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.07184644977569</v>
+        <v>16.47178328883991</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.29330057379214</v>
+        <v>21.94354208873378</v>
       </c>
       <c r="C10">
-        <v>12.93373019518559</v>
+        <v>19.96391840371577</v>
       </c>
       <c r="D10">
-        <v>6.472269970564856</v>
+        <v>8.968885725326107</v>
       </c>
       <c r="E10">
-        <v>19.67440724929947</v>
+        <v>37.56918539527073</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.683983804377266</v>
+        <v>2.040474482425077</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.52765013848485</v>
+        <v>29.59873526856012</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.10698329077541</v>
+        <v>21.56238202764765</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.08908787217015</v>
+        <v>16.61126228605795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5339118673344</v>
+        <v>22.84245568697358</v>
       </c>
       <c r="C11">
-        <v>13.19435999189055</v>
+        <v>20.80098730730845</v>
       </c>
       <c r="D11">
-        <v>6.566116332805888</v>
+        <v>9.32939814954543</v>
       </c>
       <c r="E11">
-        <v>20.37030312630491</v>
+        <v>39.21192406487388</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.681312229421285</v>
+        <v>2.030586172676577</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.66882935666803</v>
+        <v>30.34232815152424</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.30724418952456</v>
+        <v>22.45087729697759</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.09876623412211</v>
+        <v>16.68644295061466</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.62476650850926</v>
+        <v>23.17924775617666</v>
       </c>
       <c r="C12">
-        <v>13.29230124649464</v>
+        <v>21.11557147847734</v>
       </c>
       <c r="D12">
-        <v>6.601586345293079</v>
+        <v>9.464332811675638</v>
       </c>
       <c r="E12">
-        <v>20.62800502361628</v>
+        <v>39.83135562267341</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.680317935948868</v>
+        <v>2.026820997726693</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.72297274879811</v>
+        <v>30.62653739684719</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.38316663682599</v>
+        <v>22.78394656426464</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.10269587853317</v>
+        <v>16.71681186829912</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60521239494643</v>
+        <v>23.1068658268372</v>
       </c>
       <c r="C13">
-        <v>13.27124286178113</v>
+        <v>21.04791775258456</v>
       </c>
       <c r="D13">
-        <v>6.59395081984748</v>
+        <v>9.435339656576623</v>
       </c>
       <c r="E13">
-        <v>20.57276252522426</v>
+        <v>39.69804141114675</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.680531304163464</v>
+        <v>2.027632989396437</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.71128207854387</v>
+        <v>30.56520417626116</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.36681265170269</v>
+        <v>22.71235601083141</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.1018377770847</v>
+        <v>16.71018313880026</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.54139228214685</v>
+        <v>22.87023315644215</v>
       </c>
       <c r="C14">
-        <v>13.20243332324437</v>
+        <v>20.82691316399496</v>
       </c>
       <c r="D14">
-        <v>6.569036032229804</v>
+        <v>9.340529975503159</v>
       </c>
       <c r="E14">
-        <v>20.39162082624294</v>
+        <v>39.26292873062641</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.681230080831815</v>
+        <v>2.030276886002264</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.67327024553844</v>
+        <v>30.36565514651388</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.31348903867758</v>
+        <v>22.47834385182541</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.09908422006371</v>
+        <v>16.68890200897409</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50226397497379</v>
+        <v>22.72483400504382</v>
       </c>
       <c r="C15">
-        <v>13.16018453203501</v>
+        <v>20.69124583209507</v>
       </c>
       <c r="D15">
-        <v>6.553765136318446</v>
+        <v>9.282255565883558</v>
       </c>
       <c r="E15">
-        <v>20.2799096026816</v>
+        <v>38.99611336900984</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.681660360523758</v>
+        <v>2.031893336911948</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.6500749500633</v>
+        <v>30.24378007656963</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.28083602844191</v>
+        <v>22.33457972968891</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.09743207470302</v>
+        <v>16.67612097755978</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.27754497365452</v>
+        <v>21.88426459593559</v>
       </c>
       <c r="C16">
-        <v>12.91659722560956</v>
+        <v>19.90884968689582</v>
       </c>
       <c r="D16">
-        <v>6.466129412603956</v>
+        <v>8.945093985921734</v>
       </c>
       <c r="E16">
-        <v>19.6281125954087</v>
+        <v>37.46137543242931</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.684160836290265</v>
+        <v>2.041118378649551</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.51852053386552</v>
+        <v>29.55048564406815</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.09391216903469</v>
+        <v>21.50381485103111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.08849236360238</v>
+        <v>16.6066025542708</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.13932846638173</v>
+        <v>21.361666088471</v>
       </c>
       <c r="C17">
-        <v>12.76592648238887</v>
+        <v>19.42405087159525</v>
       </c>
       <c r="D17">
-        <v>6.412286461997397</v>
+        <v>8.73524684040702</v>
       </c>
       <c r="E17">
-        <v>19.2178535704621</v>
+        <v>36.51355448870184</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.685725879374928</v>
+        <v>2.046751683515097</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.4390574201486</v>
+        <v>29.12944091292172</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.9794776972881</v>
+        <v>20.98759498188857</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.08347873568638</v>
+        <v>16.56710120113413</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.05973014367199</v>
+        <v>21.05839049793678</v>
       </c>
       <c r="C18">
-        <v>12.67884248801823</v>
+        <v>19.14328202191339</v>
       </c>
       <c r="D18">
-        <v>6.381299541795227</v>
+        <v>8.613389667000309</v>
       </c>
       <c r="E18">
-        <v>18.97804883296994</v>
+        <v>35.96563310739577</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.686637514497831</v>
+        <v>2.049985275195137</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.39381633992925</v>
+        <v>28.88873002113548</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.9137697017089</v>
+        <v>20.68811278672813</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.08076772177998</v>
+        <v>16.54547077425288</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.03276546247245</v>
+        <v>20.95523185001214</v>
       </c>
       <c r="C19">
-        <v>12.64928804462821</v>
+        <v>19.04787437920531</v>
       </c>
       <c r="D19">
-        <v>6.370805987633801</v>
+        <v>8.571927203300609</v>
       </c>
       <c r="E19">
-        <v>18.89619536766716</v>
+        <v>35.779603343498</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.686948151292039</v>
+        <v>2.051079257912128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.37857890876465</v>
+        <v>28.80747183687971</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.8915436291916</v>
+        <v>20.58625907703781</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.0798794544782</v>
+        <v>16.53832828023183</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15405291420986</v>
+        <v>21.41757302836762</v>
       </c>
       <c r="C20">
-        <v>12.78201008913657</v>
+        <v>19.47585454642919</v>
       </c>
       <c r="D20">
-        <v>6.418020259959074</v>
+        <v>8.757704204146192</v>
       </c>
       <c r="E20">
-        <v>19.26192294724207</v>
+        <v>36.61472784104202</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.68555809234177</v>
+        <v>2.04615274956284</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.44746855614466</v>
+        <v>29.17410826042481</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.99164843904328</v>
+        <v>21.04280981178858</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.0839945661657</v>
+        <v>16.57119196981704</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.56014560139189</v>
+        <v>22.93983175592184</v>
       </c>
       <c r="C21">
-        <v>13.22266555935702</v>
+        <v>20.89188815379464</v>
       </c>
       <c r="D21">
-        <v>6.576356229659108</v>
+        <v>9.368419369782439</v>
       </c>
       <c r="E21">
-        <v>20.44498416589598</v>
+        <v>39.39079064807631</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.681024362681265</v>
+        <v>2.02950095711623</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.68441693844069</v>
+        <v>30.42419286675007</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.32914968269593</v>
+        <v>22.54716645689629</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.09988581800175</v>
+        <v>16.69509937334871</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.82399548776945</v>
+        <v>23.91396695896522</v>
       </c>
       <c r="C22">
-        <v>13.50622673666987</v>
+        <v>21.80369087529517</v>
       </c>
       <c r="D22">
-        <v>6.679428167205748</v>
+        <v>9.758426645541842</v>
       </c>
       <c r="E22">
-        <v>21.18428353797158</v>
+        <v>41.19062120878898</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.67816251770814</v>
+        <v>2.018491567071166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.84323868622187</v>
+        <v>31.25675889411815</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.55020550446523</v>
+        <v>23.5109144699071</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.11181460616646</v>
+        <v>16.7872773058797</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.6833472827542</v>
+        <v>23.39577789750987</v>
       </c>
       <c r="C23">
-        <v>13.35532118435977</v>
+        <v>21.31810368964427</v>
       </c>
       <c r="D23">
-        <v>6.62446601044408</v>
+        <v>9.551044414792679</v>
       </c>
       <c r="E23">
-        <v>20.79279542635584</v>
+        <v>40.23079177912925</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.679680719853255</v>
+        <v>2.024382756967087</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.75811842876621</v>
+        <v>30.81083084148195</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.43220450777133</v>
+        <v>22.99813842393007</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.10530657478527</v>
+        <v>16.73697611034348</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.14739640682981</v>
+        <v>21.39230633865103</v>
       </c>
       <c r="C24">
-        <v>12.7747401198978</v>
+        <v>19.45244053078728</v>
       </c>
       <c r="D24">
-        <v>6.415428106405282</v>
+        <v>8.747555021307067</v>
       </c>
       <c r="E24">
-        <v>19.24201146119782</v>
+        <v>36.56899683516647</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.685633911874266</v>
+        <v>2.046423542695433</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.4436644988599</v>
+        <v>29.15390996222766</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.98614578579718</v>
+        <v>21.01785563392722</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.08376082543087</v>
+        <v>16.56933918689383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.56591270178041</v>
+        <v>19.12714494490277</v>
       </c>
       <c r="C25">
-        <v>12.13283644866716</v>
+        <v>17.36518799966394</v>
       </c>
       <c r="D25">
-        <v>6.189426586638576</v>
+        <v>7.836088117304703</v>
       </c>
       <c r="E25">
-        <v>17.50252676118611</v>
+        <v>32.51002696998088</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.692494209391998</v>
+        <v>2.069973703667548</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.12230068333216</v>
+        <v>27.42205271584509</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.50959004999789</v>
+        <v>18.78237493350893</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.06711862666802</v>
+        <v>16.42957116681368</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.35606544302897</v>
+        <v>24.09452363646114</v>
       </c>
       <c r="C2">
-        <v>15.74976227707414</v>
+        <v>16.55980973348817</v>
       </c>
       <c r="D2">
-        <v>7.121239758753073</v>
+        <v>7.106800006200555</v>
       </c>
       <c r="E2">
-        <v>29.38590294997606</v>
+        <v>7.464893216559018</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.087407742393681</v>
+        <v>47.20654873054632</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.829027575682183</v>
       </c>
       <c r="I2">
-        <v>26.18611054974943</v>
+        <v>2.729074853090064</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.93495195746242</v>
       </c>
       <c r="K2">
-        <v>17.03619603410641</v>
+        <v>21.67103131791262</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.35546141409482</v>
+        <v>8.195343632572163</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.08591575629837</v>
+        <v>22.47089886071319</v>
       </c>
       <c r="C3">
-        <v>14.63326592435965</v>
+        <v>15.48717440468281</v>
       </c>
       <c r="D3">
-        <v>6.607326209463146</v>
+        <v>6.610368947121854</v>
       </c>
       <c r="E3">
-        <v>27.16775591582257</v>
+        <v>7.207293246125769</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.099395993929445</v>
+        <v>44.96969939084332</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.12804224838101</v>
       </c>
       <c r="I3">
-        <v>25.37077007314706</v>
+        <v>2.993762008073841</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.57363611041148</v>
       </c>
       <c r="K3">
-        <v>15.78433753404621</v>
+        <v>21.18578991007519</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.32049904059531</v>
+        <v>7.818357643912891</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.2700823654269</v>
+        <v>21.44165215830195</v>
       </c>
       <c r="C4">
-        <v>13.95237940847674</v>
+        <v>14.79729270537475</v>
       </c>
       <c r="D4">
-        <v>6.281396582744366</v>
+        <v>6.290219277267282</v>
       </c>
       <c r="E4">
-        <v>25.75152928052588</v>
+        <v>7.044403356049092</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.106873865280206</v>
+        <v>43.55122713957559</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.317235814494006</v>
       </c>
       <c r="I4">
-        <v>24.88082974718839</v>
+        <v>3.161881627049411</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.35030824074818</v>
       </c>
       <c r="K4">
-        <v>14.98025491899802</v>
+        <v>20.88445916935729</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.30578335235303</v>
+        <v>7.578172420382032</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.92839168704043</v>
+        <v>21.0107552232451</v>
       </c>
       <c r="C5">
-        <v>13.66957332756934</v>
+        <v>14.51719118752889</v>
       </c>
       <c r="D5">
-        <v>6.164637987379257</v>
+        <v>6.175699956058168</v>
       </c>
       <c r="E5">
-        <v>25.16016469264444</v>
+        <v>6.975178381673211</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.109954759027266</v>
+        <v>42.91743071974937</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.396288255955111</v>
       </c>
       <c r="I5">
-        <v>24.68385241089083</v>
+        <v>3.234787405248265</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.24973908827151</v>
       </c>
       <c r="K5">
-        <v>14.66593949207692</v>
+        <v>20.74169223345481</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.3013791075735</v>
+        <v>7.478676402342646</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.87109154828076</v>
+        <v>20.93841256651394</v>
       </c>
       <c r="C6">
-        <v>13.6222920070943</v>
+        <v>14.48113666315344</v>
       </c>
       <c r="D6">
-        <v>6.145128571312348</v>
+        <v>6.156507592162179</v>
       </c>
       <c r="E6">
-        <v>25.06109273444391</v>
+        <v>6.961629592599827</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.110468482545853</v>
+        <v>42.75647117042598</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.410121920914982</v>
       </c>
       <c r="I6">
-        <v>24.65130634683572</v>
+        <v>3.250778067251516</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.22169523999232</v>
       </c>
       <c r="K6">
-        <v>14.62018439390297</v>
+        <v>20.69447725485868</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.30074105410408</v>
+        <v>7.46265073655649</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.26551181856338</v>
+        <v>21.43598549993424</v>
       </c>
       <c r="C7">
-        <v>13.94858697484702</v>
+        <v>14.82269983720492</v>
       </c>
       <c r="D7">
-        <v>6.279830141956552</v>
+        <v>6.288595587432987</v>
       </c>
       <c r="E7">
-        <v>25.74361233206003</v>
+        <v>7.03813606557133</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.106915274032297</v>
+        <v>43.39469581010374</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.319963613347839</v>
       </c>
       <c r="I7">
-        <v>24.87816239653439</v>
+        <v>3.17299881893118</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.31827719277197</v>
       </c>
       <c r="K7">
-        <v>14.97574994351118</v>
+        <v>20.81889895761667</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.30571763998171</v>
+        <v>7.578514719945543</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.92545763629328</v>
+        <v>23.54613568414846</v>
       </c>
       <c r="C8">
-        <v>15.35928520071515</v>
+        <v>16.23203127805581</v>
       </c>
       <c r="D8">
-        <v>6.947134421700234</v>
+        <v>6.938868789665609</v>
       </c>
       <c r="E8">
-        <v>28.63197407817091</v>
+        <v>7.37026482300381</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.091519649893232</v>
+        <v>46.26003890695483</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.933103351937895</v>
       </c>
       <c r="I8">
-        <v>25.90275052401867</v>
+        <v>2.832590151392682</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.77140671137518</v>
       </c>
       <c r="K8">
-        <v>16.61177015329877</v>
+        <v>21.42249157478096</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.34193909775114</v>
+        <v>8.069318508470687</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.9053899197656</v>
+        <v>27.27254548742846</v>
       </c>
       <c r="C9">
-        <v>18.07966761724869</v>
+        <v>18.70365431428529</v>
       </c>
       <c r="D9">
-        <v>8.149594698498731</v>
+        <v>8.087735654677683</v>
       </c>
       <c r="E9">
-        <v>33.89589503564607</v>
+        <v>7.994938507882683</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.06204322271949</v>
+        <v>51.74468508502431</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.898607385181687</v>
       </c>
       <c r="I9">
-        <v>27.99892195534957</v>
+        <v>2.755813095801741</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.69789655721762</v>
       </c>
       <c r="K9">
-        <v>19.55008569681099</v>
+        <v>22.68619347390782</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.47178328883991</v>
+        <v>8.957603291228466</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.94354208873378</v>
+        <v>29.72701049121391</v>
       </c>
       <c r="C10">
-        <v>19.96391840371577</v>
+        <v>20.45268774270069</v>
       </c>
       <c r="D10">
-        <v>8.968885725326107</v>
+        <v>8.854516700370931</v>
       </c>
       <c r="E10">
-        <v>37.56918539527073</v>
+        <v>8.367665607308043</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.040474482425077</v>
+        <v>54.87552700964664</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.376755191414786</v>
       </c>
       <c r="I10">
-        <v>29.59873526856012</v>
+        <v>3.183709564569204</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.22091977872578</v>
       </c>
       <c r="K10">
-        <v>21.56238202764765</v>
+        <v>23.29811522178323</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.61126228605795</v>
+        <v>9.427626253764927</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.84245568697358</v>
+        <v>30.74996396470595</v>
       </c>
       <c r="C11">
-        <v>20.80098730730845</v>
+        <v>21.83284631056614</v>
       </c>
       <c r="D11">
-        <v>9.32939814954543</v>
+        <v>9.178727162305647</v>
       </c>
       <c r="E11">
-        <v>39.21192406487388</v>
+        <v>8.225928761298025</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.030586172676577</v>
+        <v>51.03920747416794</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.187391109288434</v>
       </c>
       <c r="I11">
-        <v>30.34232815152424</v>
+        <v>3.304385390584272</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.28092898917998</v>
       </c>
       <c r="K11">
-        <v>22.45087729697759</v>
+        <v>21.20457172865013</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.68644295061466</v>
+        <v>8.472940473057987</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.17924775617666</v>
+        <v>31.11736664562052</v>
       </c>
       <c r="C12">
-        <v>21.11557147847734</v>
+        <v>22.62006621865125</v>
       </c>
       <c r="D12">
-        <v>9.464332811675638</v>
+        <v>9.296132182158679</v>
       </c>
       <c r="E12">
-        <v>39.83135562267341</v>
+        <v>8.388390290342857</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.026820997726693</v>
+        <v>47.28537066365316</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.366930533483994</v>
       </c>
       <c r="I12">
-        <v>30.62653739684719</v>
+        <v>3.321301274522775</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.41123516028625</v>
       </c>
       <c r="K12">
-        <v>22.78394656426464</v>
+        <v>19.40597309705417</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.71681186829912</v>
+        <v>7.593709751500828</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.1068658268372</v>
+        <v>31.01437135815839</v>
       </c>
       <c r="C13">
-        <v>21.04791775258456</v>
+        <v>23.05671967911811</v>
       </c>
       <c r="D13">
-        <v>9.435339656576623</v>
+        <v>9.264619431166633</v>
       </c>
       <c r="E13">
-        <v>39.69804141114675</v>
+        <v>8.763467808790109</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.027632989396437</v>
+        <v>43.0671172063209</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.630871221032041</v>
       </c>
       <c r="I13">
-        <v>30.56520417626116</v>
+        <v>3.26174706660298</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.48735449036095</v>
       </c>
       <c r="K13">
-        <v>22.71235601083141</v>
+        <v>17.62760745407543</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.71018313880026</v>
+        <v>6.71723139322298</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.87023315644215</v>
+        <v>30.72862465766957</v>
       </c>
       <c r="C14">
-        <v>20.82691316399496</v>
+        <v>23.21901597864082</v>
       </c>
       <c r="D14">
-        <v>9.340529975503159</v>
+        <v>9.174982915066231</v>
       </c>
       <c r="E14">
-        <v>39.26292873062641</v>
+        <v>9.147539674651243</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.030276886002264</v>
+        <v>39.81736140938471</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.547329206748803</v>
       </c>
       <c r="I14">
-        <v>30.36565514651388</v>
+        <v>3.186990027450171</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.80646299075728</v>
       </c>
       <c r="K14">
-        <v>22.47834385182541</v>
+        <v>16.3915270747031</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.68890200897409</v>
+        <v>6.118285471550985</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72483400504382</v>
+        <v>30.5568824751743</v>
       </c>
       <c r="C15">
-        <v>20.69124583209507</v>
+        <v>23.19258866237731</v>
       </c>
       <c r="D15">
-        <v>9.282255565883558</v>
+        <v>9.120954276636709</v>
       </c>
       <c r="E15">
-        <v>38.99611336900984</v>
+        <v>9.239902775276214</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.031893336911948</v>
+        <v>38.87411070475016</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.754292491116519</v>
       </c>
       <c r="I15">
-        <v>30.24378007656963</v>
+        <v>3.152658092232981</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.62007525685125</v>
       </c>
       <c r="K15">
-        <v>22.33457972968891</v>
+        <v>16.07749616610717</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.67612097755978</v>
+        <v>5.970016355953399</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.88426459593559</v>
+        <v>29.57188548207054</v>
       </c>
       <c r="C16">
-        <v>19.90884968689582</v>
+        <v>22.4441441635633</v>
       </c>
       <c r="D16">
-        <v>8.945093985921734</v>
+        <v>8.811061901918434</v>
       </c>
       <c r="E16">
-        <v>37.46137543242931</v>
+        <v>9.006688889281115</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.041118378649551</v>
+        <v>38.03030131675571</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.46553533619485</v>
       </c>
       <c r="I16">
-        <v>29.55048564406815</v>
+        <v>2.983739404003048</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.53617946248565</v>
       </c>
       <c r="K16">
-        <v>21.50381485103111</v>
+        <v>16.11284393547919</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.6066025542708</v>
+        <v>5.906656862994293</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.361666088471</v>
+        <v>28.95821086239513</v>
       </c>
       <c r="C17">
-        <v>19.42405087159525</v>
+        <v>21.76514214095085</v>
       </c>
       <c r="D17">
-        <v>8.73524684040702</v>
+        <v>8.618355888539668</v>
       </c>
       <c r="E17">
-        <v>36.51355448870184</v>
+        <v>8.587967381380306</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046751683515097</v>
+        <v>39.18516641886944</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.703995965489056</v>
       </c>
       <c r="I17">
-        <v>29.12944091292172</v>
+        <v>2.89374593192417</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.83923532290454</v>
       </c>
       <c r="K17">
-        <v>20.98759498188857</v>
+        <v>16.78857795000561</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.56710120113413</v>
+        <v>6.175155020338245</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.05839049793678</v>
+        <v>28.6096817484129</v>
       </c>
       <c r="C18">
-        <v>19.14328202191339</v>
+        <v>21.0598336856637</v>
       </c>
       <c r="D18">
-        <v>8.613389667000309</v>
+        <v>8.508516150390848</v>
       </c>
       <c r="E18">
-        <v>35.96563310739577</v>
+        <v>8.100003035356908</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.049985275195137</v>
+        <v>42.29159553282929</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.4829336945493</v>
       </c>
       <c r="I18">
-        <v>28.88873002113548</v>
+        <v>2.861719851702639</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.53371987109651</v>
       </c>
       <c r="K18">
-        <v>20.68811278672813</v>
+        <v>18.16885075962378</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.54547077425288</v>
+        <v>6.803173817139811</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.95523185001214</v>
+        <v>28.50619177225303</v>
       </c>
       <c r="C19">
-        <v>19.04787437920531</v>
+        <v>20.44844931296242</v>
       </c>
       <c r="D19">
-        <v>8.571927203300609</v>
+        <v>8.474908538306716</v>
       </c>
       <c r="E19">
-        <v>35.779603343498</v>
+        <v>7.845654372986886</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051079257912128</v>
+        <v>46.46019301692768</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.130754842474266</v>
       </c>
       <c r="I19">
-        <v>28.80747183687971</v>
+        <v>2.891840158874744</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.44523489189625</v>
       </c>
       <c r="K19">
-        <v>20.58625907703781</v>
+        <v>19.96085061435046</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.53832828023183</v>
+        <v>7.716967017716435</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.41757302836762</v>
+        <v>29.09874441229807</v>
       </c>
       <c r="C20">
-        <v>19.47585454642919</v>
+        <v>20.0767612907419</v>
       </c>
       <c r="D20">
-        <v>8.757704204146192</v>
+        <v>8.657658256345966</v>
       </c>
       <c r="E20">
-        <v>36.61472784104202</v>
+        <v>8.253370895112626</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.04615274956284</v>
+        <v>53.6628358322612</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.246287619846481</v>
       </c>
       <c r="I20">
-        <v>29.17410826042481</v>
+        <v>3.07928767407948</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.99345199783799</v>
       </c>
       <c r="K20">
-        <v>21.04280981178858</v>
+        <v>22.94772572227822</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.57119196981704</v>
+        <v>9.304575455817481</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.93983175592184</v>
+        <v>30.90249305939034</v>
       </c>
       <c r="C21">
-        <v>20.89188815379464</v>
+        <v>21.25030277701468</v>
       </c>
       <c r="D21">
-        <v>9.368419369782439</v>
+        <v>9.224393307417177</v>
       </c>
       <c r="E21">
-        <v>39.39079064807631</v>
+        <v>8.638940227544948</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.02950095711623</v>
+        <v>56.99408255957142</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.631116742196572</v>
       </c>
       <c r="I21">
-        <v>30.42419286675007</v>
+        <v>3.415456887465063</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.61565484630586</v>
       </c>
       <c r="K21">
-        <v>22.54716645689629</v>
+        <v>23.86660891217326</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.69509937334871</v>
+        <v>9.863561131113022</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.91396695896522</v>
+        <v>32.03143099208743</v>
       </c>
       <c r="C22">
-        <v>21.80369087529517</v>
+        <v>22.0013635105969</v>
       </c>
       <c r="D22">
-        <v>9.758426645541842</v>
+        <v>9.581543815499343</v>
       </c>
       <c r="E22">
-        <v>41.19062120878898</v>
+        <v>8.860758170244244</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.018491567071166</v>
+        <v>58.96354910381883</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.873228270069333</v>
       </c>
       <c r="I22">
-        <v>31.25675889411815</v>
+        <v>3.626438461084257</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.98493614950975</v>
       </c>
       <c r="K22">
-        <v>23.5109144699071</v>
+        <v>24.39668174214827</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.7872773058797</v>
+        <v>10.14758284757863</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.39577789750987</v>
+        <v>31.4341539276483</v>
       </c>
       <c r="C23">
-        <v>21.31810368964427</v>
+        <v>21.57803947851308</v>
       </c>
       <c r="D23">
-        <v>9.551044414792679</v>
+        <v>9.392292597689785</v>
       </c>
       <c r="E23">
-        <v>40.23079177912925</v>
+        <v>8.747821080354298</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.024382756967087</v>
+        <v>58.05174609826207</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.745909142170452</v>
       </c>
       <c r="I23">
-        <v>30.81083084148195</v>
+        <v>3.511557983585488</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.81898265033352</v>
       </c>
       <c r="K23">
-        <v>22.99813842393007</v>
+        <v>24.17963914356514</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.73697611034348</v>
+        <v>9.995196667853735</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.39230633865103</v>
+        <v>29.07286488696624</v>
       </c>
       <c r="C24">
-        <v>19.45244053078728</v>
+        <v>19.96231139522408</v>
       </c>
       <c r="D24">
-        <v>8.747555021307067</v>
+        <v>8.649232854672016</v>
       </c>
       <c r="E24">
-        <v>36.56899683516647</v>
+        <v>8.307323551171413</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.046423542695433</v>
+        <v>54.29725798816701</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.254975649443666</v>
       </c>
       <c r="I24">
-        <v>29.15390996222766</v>
+        <v>3.076011046574857</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.13766305593977</v>
       </c>
       <c r="K24">
-        <v>21.01785563392722</v>
+        <v>23.24881850131386</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.56933918689383</v>
+        <v>9.40320890556176</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12714494490277</v>
+        <v>26.31269067833473</v>
       </c>
       <c r="C25">
-        <v>17.36518799966394</v>
+        <v>18.10474076032938</v>
       </c>
       <c r="D25">
-        <v>7.836088117304703</v>
+        <v>7.790265175996201</v>
       </c>
       <c r="E25">
-        <v>32.51002696998088</v>
+        <v>7.820765286583509</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.069973703667548</v>
+        <v>50.07077818698944</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.710304073268607</v>
       </c>
       <c r="I25">
-        <v>27.42205271584509</v>
+        <v>2.597281039198731</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.39799985530981</v>
       </c>
       <c r="K25">
-        <v>18.78237493350893</v>
+        <v>22.24040522929097</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.42957116681368</v>
+        <v>8.727908447015444</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09452363646114</v>
+        <v>24.12690290242954</v>
       </c>
       <c r="C2">
-        <v>16.55980973348817</v>
+        <v>17.52535764392082</v>
       </c>
       <c r="D2">
-        <v>7.106800006200555</v>
+        <v>7.109498651300944</v>
       </c>
       <c r="E2">
-        <v>7.464893216559018</v>
+        <v>7.256069775275008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.20654873054632</v>
+        <v>40.93629079709803</v>
       </c>
       <c r="H2">
-        <v>1.829027575682183</v>
+        <v>1.761494042043692</v>
       </c>
       <c r="I2">
-        <v>2.729074853090064</v>
+        <v>2.644137397714831</v>
       </c>
       <c r="J2">
-        <v>13.93495195746242</v>
+        <v>13.04081287732363</v>
       </c>
       <c r="K2">
-        <v>21.67103131791262</v>
+        <v>18.95518350100894</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.64756284821728</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.58776435621501</v>
       </c>
       <c r="N2">
-        <v>8.195343632572163</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.340609691377502</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47089886071319</v>
+        <v>22.51516613197872</v>
       </c>
       <c r="C3">
-        <v>15.48717440468281</v>
+        <v>16.33680354954173</v>
       </c>
       <c r="D3">
-        <v>6.610368947121854</v>
+        <v>6.615462985061845</v>
       </c>
       <c r="E3">
-        <v>7.207293246125769</v>
+        <v>7.044237746717595</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.96969939084332</v>
+        <v>39.31743562271611</v>
       </c>
       <c r="H3">
-        <v>2.12804224838101</v>
+        <v>2.027620578606968</v>
       </c>
       <c r="I3">
-        <v>2.993762008073841</v>
+        <v>2.870461594433293</v>
       </c>
       <c r="J3">
-        <v>13.57363611041148</v>
+        <v>12.77449706691853</v>
       </c>
       <c r="K3">
-        <v>21.18578991007519</v>
+        <v>18.75585466353202</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.62399919223743</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.29805101362189</v>
       </c>
       <c r="N3">
-        <v>7.818357643912891</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.969352961700821</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44165215830195</v>
+        <v>21.46556900333479</v>
       </c>
       <c r="C4">
-        <v>14.79729270537475</v>
+        <v>15.57011946253449</v>
       </c>
       <c r="D4">
-        <v>6.290219277267282</v>
+        <v>6.295351015525967</v>
       </c>
       <c r="E4">
-        <v>7.044403356049092</v>
+        <v>6.910286942557536</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.55122713957559</v>
+        <v>38.29991242858257</v>
       </c>
       <c r="H4">
-        <v>2.317235814494006</v>
+        <v>2.196231162986547</v>
       </c>
       <c r="I4">
-        <v>3.161881627049411</v>
+        <v>3.014734969712372</v>
       </c>
       <c r="J4">
-        <v>13.35030824074818</v>
+        <v>12.60751282315043</v>
       </c>
       <c r="K4">
-        <v>20.88445916935729</v>
+        <v>18.63264173332794</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.60299899108196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.13821339827808</v>
       </c>
       <c r="N4">
-        <v>7.578172420382032</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.733070484674682</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0107552232451</v>
+        <v>21.02250350050384</v>
       </c>
       <c r="C5">
-        <v>14.51719118752889</v>
+        <v>15.25659100494404</v>
       </c>
       <c r="D5">
-        <v>6.175699956058168</v>
+        <v>6.180509663747881</v>
       </c>
       <c r="E5">
-        <v>6.975178381673211</v>
+        <v>6.853482643300913</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.91743071974937</v>
+        <v>37.84094592403612</v>
       </c>
       <c r="H5">
-        <v>2.396288255955111</v>
+        <v>2.266719991200338</v>
       </c>
       <c r="I5">
-        <v>3.234787405248265</v>
+        <v>3.078267453841923</v>
       </c>
       <c r="J5">
-        <v>13.24973908827151</v>
+        <v>12.53087874308921</v>
       </c>
       <c r="K5">
-        <v>20.74169223345481</v>
+        <v>18.56669837433085</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.58017042218529</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.06692502221322</v>
       </c>
       <c r="N5">
-        <v>7.478676402342646</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.635197449795411</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93841256651394</v>
+        <v>20.94779686194006</v>
       </c>
       <c r="C6">
-        <v>14.48113666315344</v>
+        <v>15.21401749262145</v>
       </c>
       <c r="D6">
-        <v>6.156507592162179</v>
+        <v>6.161360434179339</v>
       </c>
       <c r="E6">
-        <v>6.961629592599827</v>
+        <v>6.842513978345037</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.75647117042598</v>
+        <v>37.71700257155932</v>
       </c>
       <c r="H6">
-        <v>2.410121920914982</v>
+        <v>2.279040562758328</v>
       </c>
       <c r="I6">
-        <v>3.250778067251516</v>
+        <v>3.093265782171394</v>
       </c>
       <c r="J6">
-        <v>13.22169523999232</v>
+        <v>12.50862122355669</v>
       </c>
       <c r="K6">
-        <v>20.69447725485868</v>
+        <v>18.53679954907855</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.5608875059395</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.04209356964514</v>
       </c>
       <c r="N6">
-        <v>7.46265073655649</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.619354781238938</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43598549993424</v>
+        <v>21.45875831978902</v>
       </c>
       <c r="C7">
-        <v>14.82269983720492</v>
+        <v>15.57954765330781</v>
       </c>
       <c r="D7">
-        <v>6.288595587432987</v>
+        <v>6.293369133323999</v>
       </c>
       <c r="E7">
-        <v>7.03813606557133</v>
+        <v>6.905290374872454</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.39469581010374</v>
+        <v>38.21710845884977</v>
       </c>
       <c r="H7">
-        <v>2.319963613347839</v>
+        <v>2.199451366380602</v>
       </c>
       <c r="I7">
-        <v>3.17299881893118</v>
+        <v>3.028087695109363</v>
       </c>
       <c r="J7">
-        <v>13.31827719277197</v>
+        <v>12.51430398436068</v>
       </c>
       <c r="K7">
-        <v>20.81889895761667</v>
+        <v>18.55609951257125</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.54189483552728</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.08328136501731</v>
       </c>
       <c r="N7">
-        <v>7.578514719945543</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.731955337143794</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.54613568414846</v>
+        <v>23.58180910792789</v>
       </c>
       <c r="C8">
-        <v>16.23203127805581</v>
+        <v>17.11548305934565</v>
       </c>
       <c r="D8">
-        <v>6.938868789665609</v>
+        <v>6.942198087045721</v>
       </c>
       <c r="E8">
-        <v>7.37026482300381</v>
+        <v>7.178098412540184</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.26003890695483</v>
+        <v>40.38575936380348</v>
       </c>
       <c r="H8">
-        <v>1.933103351937895</v>
+        <v>1.856606467401661</v>
       </c>
       <c r="I8">
-        <v>2.832590151392682</v>
+        <v>2.739112796129094</v>
       </c>
       <c r="J8">
-        <v>13.77140671137518</v>
+        <v>12.70262291626492</v>
       </c>
       <c r="K8">
-        <v>21.42249157478096</v>
+        <v>18.74182840974605</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.52879476170752</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.37591530243616</v>
       </c>
       <c r="N8">
-        <v>8.069318508470687</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.212344215607638</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27254548742846</v>
+        <v>27.27514839157556</v>
       </c>
       <c r="C9">
-        <v>18.70365431428529</v>
+        <v>19.84246378781346</v>
       </c>
       <c r="D9">
-        <v>8.087735654677683</v>
+        <v>8.083660229335473</v>
       </c>
       <c r="E9">
-        <v>7.994938507882683</v>
+        <v>7.691303873843457</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.74468508502431</v>
+        <v>44.46050107885875</v>
       </c>
       <c r="H9">
-        <v>1.898607385181687</v>
+        <v>1.89415964913213</v>
       </c>
       <c r="I9">
-        <v>2.755813095801741</v>
+        <v>2.764420047698042</v>
       </c>
       <c r="J9">
-        <v>14.69789655721762</v>
+        <v>13.32991646293334</v>
       </c>
       <c r="K9">
-        <v>22.68619347390782</v>
+        <v>19.27886027524908</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.59114048603017</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.21716051064709</v>
       </c>
       <c r="N9">
-        <v>8.957603291228466</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.087641242398254</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.72701049121391</v>
+        <v>29.7011625177769</v>
       </c>
       <c r="C10">
-        <v>20.45268774270069</v>
+        <v>21.67381815714525</v>
       </c>
       <c r="D10">
-        <v>8.854516700370931</v>
+        <v>8.843315549826473</v>
       </c>
       <c r="E10">
-        <v>8.367665607308043</v>
+        <v>8.003953975740632</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.87552700964664</v>
+        <v>47.050494941769</v>
       </c>
       <c r="H10">
-        <v>2.376755191414786</v>
+        <v>2.313536445238698</v>
       </c>
       <c r="I10">
-        <v>3.183709564569204</v>
+        <v>3.127030020925816</v>
       </c>
       <c r="J10">
-        <v>15.22091977872578</v>
+        <v>13.31705103197527</v>
       </c>
       <c r="K10">
-        <v>23.29811522178323</v>
+        <v>19.32594363626401</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.35944093140773</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.62925393199548</v>
       </c>
       <c r="N10">
-        <v>9.427626253764927</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.541401936407029</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.74996396470595</v>
+        <v>30.71559158017138</v>
       </c>
       <c r="C11">
-        <v>21.83284631056614</v>
+        <v>22.82400130781924</v>
       </c>
       <c r="D11">
-        <v>9.178727162305647</v>
+        <v>9.165136014939927</v>
       </c>
       <c r="E11">
-        <v>8.225928761298025</v>
+        <v>7.982298407749941</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.03920747416794</v>
+        <v>44.47929185580331</v>
       </c>
       <c r="H11">
-        <v>3.187391109288434</v>
+        <v>3.127109776993564</v>
       </c>
       <c r="I11">
-        <v>3.304385390584272</v>
+        <v>3.230855931519578</v>
       </c>
       <c r="J11">
-        <v>14.28092898917998</v>
+        <v>11.86753586586382</v>
       </c>
       <c r="K11">
-        <v>21.20457172865013</v>
+        <v>17.40136960344241</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.89007016069191</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.25140106632669</v>
       </c>
       <c r="N11">
-        <v>8.472940473057987</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.554021092449796</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.11736664562052</v>
+        <v>31.08232252087153</v>
       </c>
       <c r="C12">
-        <v>22.62006621865125</v>
+        <v>23.43108182605954</v>
       </c>
       <c r="D12">
-        <v>9.296132182158679</v>
+        <v>9.28228417156191</v>
       </c>
       <c r="E12">
-        <v>8.388390290342857</v>
+        <v>8.234206625625589</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.28537066365316</v>
+        <v>41.73121088049715</v>
       </c>
       <c r="H12">
-        <v>4.366930533483994</v>
+        <v>4.322902095103582</v>
       </c>
       <c r="I12">
-        <v>3.321301274522775</v>
+        <v>3.245945798537843</v>
       </c>
       <c r="J12">
-        <v>13.41123516028625</v>
+        <v>10.91390367113657</v>
       </c>
       <c r="K12">
-        <v>19.40597309705417</v>
+        <v>15.94829678763655</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.859399098216</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.1147908167318</v>
       </c>
       <c r="N12">
-        <v>7.593709751500828</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.653331078763009</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.01437135815839</v>
+        <v>30.98533898056585</v>
       </c>
       <c r="C13">
-        <v>23.05671967911811</v>
+        <v>23.73351869308637</v>
       </c>
       <c r="D13">
-        <v>9.264619431166633</v>
+        <v>9.252433549969883</v>
       </c>
       <c r="E13">
-        <v>8.763467808790109</v>
+        <v>8.686144155826188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.0671172063209</v>
+        <v>38.31454073849375</v>
       </c>
       <c r="H13">
-        <v>5.630871221032041</v>
+        <v>5.602818105270299</v>
       </c>
       <c r="I13">
-        <v>3.26174706660298</v>
+        <v>3.199269400631107</v>
       </c>
       <c r="J13">
-        <v>12.48735449036095</v>
+        <v>10.35071490125624</v>
       </c>
       <c r="K13">
-        <v>17.62760745407543</v>
+        <v>14.73965670884098</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.06163297271727</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.07616712483773</v>
       </c>
       <c r="N13">
-        <v>6.71723139322298</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.764616281894079</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.72862465766957</v>
+        <v>30.70654154332653</v>
       </c>
       <c r="C14">
-        <v>23.21901597864082</v>
+        <v>23.81865937460962</v>
       </c>
       <c r="D14">
-        <v>9.174982915066231</v>
+        <v>9.164756255087566</v>
       </c>
       <c r="E14">
-        <v>9.147539674651243</v>
+        <v>9.116514495463974</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.81736140938471</v>
+        <v>35.55154564399999</v>
       </c>
       <c r="H14">
-        <v>6.547329206748803</v>
+        <v>6.528793046205797</v>
       </c>
       <c r="I14">
-        <v>3.186990027450171</v>
+        <v>3.140222621643237</v>
       </c>
       <c r="J14">
-        <v>11.80646299075728</v>
+        <v>10.10512910341797</v>
       </c>
       <c r="K14">
-        <v>16.3915270747031</v>
+        <v>13.99798203758287</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.59599197125922</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.390792857680619</v>
       </c>
       <c r="N14">
-        <v>6.118285471550985</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.161090605105379</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.5568824751743</v>
+        <v>30.53790841461803</v>
       </c>
       <c r="C15">
-        <v>23.19258866237731</v>
+        <v>23.7809643352298</v>
       </c>
       <c r="D15">
-        <v>9.120954276636709</v>
+        <v>9.11160338424826</v>
       </c>
       <c r="E15">
-        <v>9.239902775276214</v>
+        <v>9.222213189405593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.87411070475016</v>
+        <v>34.69941743055268</v>
       </c>
       <c r="H15">
-        <v>6.754292491116519</v>
+        <v>6.73867489503453</v>
       </c>
       <c r="I15">
-        <v>3.152658092232981</v>
+        <v>3.113503378421819</v>
       </c>
       <c r="J15">
-        <v>11.62007525685125</v>
+        <v>10.10146300514005</v>
       </c>
       <c r="K15">
-        <v>16.07749616610717</v>
+        <v>13.84488587236428</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.50685453724198</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.231606906745332</v>
       </c>
       <c r="N15">
-        <v>5.970016355953399</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.013609798801109</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.57188548207054</v>
+        <v>29.56615090905924</v>
       </c>
       <c r="C16">
-        <v>22.4441441635633</v>
+        <v>23.10557284431943</v>
       </c>
       <c r="D16">
-        <v>8.811061901918434</v>
+        <v>8.805343405065168</v>
       </c>
       <c r="E16">
-        <v>9.006688889281115</v>
+        <v>9.022217132987048</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.03030131675571</v>
+        <v>33.58767044891181</v>
       </c>
       <c r="H16">
-        <v>6.46553533619485</v>
+        <v>6.459136611968466</v>
       </c>
       <c r="I16">
-        <v>2.983739404003048</v>
+        <v>2.976030341085036</v>
       </c>
       <c r="J16">
-        <v>11.53617946248565</v>
+        <v>10.64305063883558</v>
       </c>
       <c r="K16">
-        <v>16.11284393547919</v>
+        <v>14.18249766990921</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.78518538485603</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.388781891015284</v>
       </c>
       <c r="N16">
-        <v>5.906656862994293</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.968232565005603</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95821086239513</v>
+        <v>28.95860329586443</v>
       </c>
       <c r="C17">
-        <v>21.76514214095085</v>
+        <v>22.51074891457761</v>
       </c>
       <c r="D17">
-        <v>8.618355888539668</v>
+        <v>8.614224713150652</v>
       </c>
       <c r="E17">
-        <v>8.587967381380306</v>
+        <v>8.600726643497312</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.18516641886944</v>
+        <v>34.33612451241073</v>
       </c>
       <c r="H17">
-        <v>5.703995965489056</v>
+        <v>5.701451514491184</v>
       </c>
       <c r="I17">
-        <v>2.89374593192417</v>
+        <v>2.901195468017601</v>
       </c>
       <c r="J17">
-        <v>11.83923532290454</v>
+        <v>11.13242833881579</v>
       </c>
       <c r="K17">
-        <v>16.78857795000561</v>
+        <v>14.81153468640138</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.24788293402174</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.844170571929366</v>
       </c>
       <c r="N17">
-        <v>6.175155020338245</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.251768598336962</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6096817484129</v>
+        <v>28.61126391027631</v>
       </c>
       <c r="C18">
-        <v>21.0598336856637</v>
+        <v>21.93071603545143</v>
       </c>
       <c r="D18">
-        <v>8.508516150390848</v>
+        <v>8.50460649704444</v>
       </c>
       <c r="E18">
-        <v>8.100003035356908</v>
+        <v>8.066881712471014</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.29159553282929</v>
+        <v>36.75378495699894</v>
       </c>
       <c r="H18">
-        <v>4.4829336945493</v>
+        <v>4.480723844016432</v>
       </c>
       <c r="I18">
-        <v>2.861719851702639</v>
+        <v>2.871100816111458</v>
       </c>
       <c r="J18">
-        <v>12.53371987109651</v>
+        <v>11.76824642788294</v>
       </c>
       <c r="K18">
-        <v>18.16885075962378</v>
+        <v>15.87311676333273</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.01080759772386</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.67908217513004</v>
       </c>
       <c r="N18">
-        <v>6.803173817139811</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.895370186555676</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.50619177225303</v>
+        <v>28.50481715774876</v>
       </c>
       <c r="C19">
-        <v>20.44844931296242</v>
+        <v>21.46750698604412</v>
       </c>
       <c r="D19">
-        <v>8.474908538306716</v>
+        <v>8.470139236405721</v>
       </c>
       <c r="E19">
-        <v>7.845654372986886</v>
+        <v>7.714124065907215</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.46019301692768</v>
+        <v>40.05191157343408</v>
       </c>
       <c r="H19">
-        <v>3.130754842474266</v>
+        <v>3.123335324846933</v>
       </c>
       <c r="I19">
-        <v>2.891840158874744</v>
+        <v>2.894578719843716</v>
       </c>
       <c r="J19">
-        <v>13.44523489189625</v>
+        <v>12.48604694565877</v>
       </c>
       <c r="K19">
-        <v>19.96085061435046</v>
+        <v>17.18672259200281</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.95182851012359</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.73125057205987</v>
       </c>
       <c r="N19">
-        <v>7.716967017716435</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.824048325136772</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.09874441229807</v>
+        <v>29.08207678624028</v>
       </c>
       <c r="C20">
-        <v>20.0767612907419</v>
+        <v>21.3073572912067</v>
       </c>
       <c r="D20">
-        <v>8.657658256345966</v>
+        <v>8.64887476814345</v>
       </c>
       <c r="E20">
-        <v>8.253370895112626</v>
+        <v>7.910943681160113</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.6628358322612</v>
+        <v>45.87479505422213</v>
       </c>
       <c r="H20">
-        <v>2.246287619846481</v>
+        <v>2.201627360405414</v>
       </c>
       <c r="I20">
-        <v>3.07928767407948</v>
+        <v>3.046584058063754</v>
       </c>
       <c r="J20">
-        <v>14.99345199783799</v>
+        <v>13.45975035362773</v>
       </c>
       <c r="K20">
-        <v>22.94772572227822</v>
+        <v>19.23814847581884</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.36696001158638</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.45763322658832</v>
       </c>
       <c r="N20">
-        <v>9.304575455817481</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.425527589074898</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.90249305939034</v>
+        <v>30.85579208646292</v>
       </c>
       <c r="C21">
-        <v>21.25030277701468</v>
+        <v>22.38251123992197</v>
       </c>
       <c r="D21">
-        <v>9.224393307417177</v>
+        <v>9.207513645034732</v>
       </c>
       <c r="E21">
-        <v>8.638940227544948</v>
+        <v>8.220051705158253</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.99408255957142</v>
+        <v>49.42764885005383</v>
       </c>
       <c r="H21">
-        <v>2.631116742196572</v>
+        <v>2.526278722117766</v>
       </c>
       <c r="I21">
-        <v>3.415456887465063</v>
+        <v>3.316961186486917</v>
       </c>
       <c r="J21">
-        <v>15.61565484630586</v>
+        <v>12.52334625258434</v>
       </c>
       <c r="K21">
-        <v>23.86660891217326</v>
+        <v>19.20321623535256</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.13760308903681</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.73139327215579</v>
       </c>
       <c r="N21">
-        <v>9.863561131113022</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.956749843620848</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.03143099208743</v>
+        <v>31.96422624395873</v>
       </c>
       <c r="C22">
-        <v>22.0013635105969</v>
+        <v>23.05197194260795</v>
       </c>
       <c r="D22">
-        <v>9.581543815499343</v>
+        <v>9.558945650093447</v>
       </c>
       <c r="E22">
-        <v>8.860758170244244</v>
+        <v>8.402571975326879</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.96354910381883</v>
+        <v>51.64787630466643</v>
       </c>
       <c r="H22">
-        <v>2.873228270069333</v>
+        <v>2.72977936211094</v>
       </c>
       <c r="I22">
-        <v>3.626438461084257</v>
+        <v>3.484262090756596</v>
       </c>
       <c r="J22">
-        <v>15.98493614950975</v>
+        <v>11.83161768469503</v>
       </c>
       <c r="K22">
-        <v>24.39668174214827</v>
+        <v>19.1105793819066</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.93758535338218</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.86215880157758</v>
       </c>
       <c r="N22">
-        <v>10.14758284757863</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.22125934540541</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.4341539276483</v>
+        <v>31.3785040776488</v>
       </c>
       <c r="C23">
-        <v>21.57803947851308</v>
+        <v>22.69916519773284</v>
       </c>
       <c r="D23">
-        <v>9.392292597689785</v>
+        <v>9.372957690905709</v>
       </c>
       <c r="E23">
-        <v>8.747821080354298</v>
+        <v>8.30881508628462</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.05174609826207</v>
+        <v>50.47138191028399</v>
       </c>
       <c r="H23">
-        <v>2.745909142170452</v>
+        <v>2.624213163150794</v>
       </c>
       <c r="I23">
-        <v>3.511557983585488</v>
+        <v>3.392433903322305</v>
       </c>
       <c r="J23">
-        <v>15.81898265033352</v>
+        <v>12.37151929172557</v>
       </c>
       <c r="K23">
-        <v>24.17963914356514</v>
+        <v>19.269641591332</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.12090933308608</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.87993625135975</v>
       </c>
       <c r="N23">
-        <v>9.995196667853735</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.08192317751176</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.07286488696624</v>
+        <v>29.05569284545168</v>
       </c>
       <c r="C24">
-        <v>19.96231139522408</v>
+        <v>21.2107156355001</v>
       </c>
       <c r="D24">
-        <v>8.649232854672016</v>
+        <v>8.640312326112177</v>
       </c>
       <c r="E24">
-        <v>8.307323551171413</v>
+        <v>7.948696801462483</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.29725798816701</v>
+        <v>46.38671951969361</v>
       </c>
       <c r="H24">
-        <v>2.254975649443666</v>
+        <v>2.209120483636738</v>
       </c>
       <c r="I24">
-        <v>3.076011046574857</v>
+        <v>3.039919442372969</v>
       </c>
       <c r="J24">
-        <v>15.13766305593977</v>
+        <v>13.58449642444272</v>
       </c>
       <c r="K24">
-        <v>23.24881850131386</v>
+        <v>19.47515116990984</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.5407278044691</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.64133965146697</v>
       </c>
       <c r="N24">
-        <v>9.40320890556176</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.526129080759128</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.31269067833473</v>
+        <v>26.32537306924296</v>
       </c>
       <c r="C25">
-        <v>18.10474076032938</v>
+        <v>19.19152136253718</v>
       </c>
       <c r="D25">
-        <v>7.790265175996201</v>
+        <v>7.788590754345607</v>
       </c>
       <c r="E25">
-        <v>7.820765286583509</v>
+        <v>7.549326485820158</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.07077818698944</v>
+        <v>43.11436127532803</v>
       </c>
       <c r="H25">
-        <v>1.710304073268607</v>
+        <v>1.728499205510719</v>
       </c>
       <c r="I25">
-        <v>2.597281039198731</v>
+        <v>2.633194225827908</v>
       </c>
       <c r="J25">
-        <v>14.39799985530981</v>
+        <v>13.20955699413093</v>
       </c>
       <c r="K25">
-        <v>22.24040522929097</v>
+        <v>19.07947191411658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.53944576690846</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.93370662411764</v>
       </c>
       <c r="N25">
-        <v>8.727908447015444</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.862434250172688</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
